--- a/results/I3_N5_M2_T30_C200_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1726149843276</v>
+        <v>190.43831051045</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.9426149843276</v>
+        <v>26.43831051044998</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.23</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.93048325774539</v>
+        <v>23.10555953090583</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.35722294236247</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.10830325470276</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2470593404437</v>
+        <v>23.61204927984102</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>28.17507627316046</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>153.6849999999998</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>171.2799999999997</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>159.6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>160.1699999999998</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>131.6650000000005</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>142.3050000000005</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>123.4900000000005</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>145.1950000000005</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.0400000000005</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>101.3800000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>94.24500000000015</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>101.9050000000001</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>95.42000000000014</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>96.98500000000014</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>61.69000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>62.66500000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>66.29000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>61.57500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>131.6650000000005</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>142.3050000000005</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.4900000000005</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>145.1950000000005</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>138.0400000000005</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>167.1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.6849999999998</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>171.2799999999997</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>159.6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>160.1699999999998</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
